--- a/faq.xlsx
+++ b/faq.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_uemura\Box\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_uemura\Desktop\faq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5242DDA7-02FB-442A-9772-4FEDBC24663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6E4A60-0F19-4B66-AC3D-DA48E98BC7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{D90987E8-E70A-4CC6-9903-E6944D1A42F6}"/>
+    <workbookView xWindow="6225" yWindow="19560" windowWidth="9765" windowHeight="11160" xr2:uid="{D90987E8-E70A-4CC6-9903-E6944D1A42F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="340">
   <si>
     <t>質問</t>
     <rPh sb="0" eb="2">
@@ -4487,6 +4487,17 @@
     <rPh sb="26" eb="28">
       <t>サギョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>添付ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image/anzenben.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4926,19 +4937,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A56739-67EF-4B00-8960-00ED76911343}">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="189.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="189.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4948,8 +4959,11 @@
       <c r="C1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4959,8 +4973,11 @@
       <c r="C2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4971,7 +4988,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4982,7 +4999,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4993,7 +5010,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5001,7 +5018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5009,7 +5026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -5017,7 +5034,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5025,7 +5042,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5033,7 +5050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5041,7 +5058,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5049,7 +5066,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5057,7 +5074,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5065,7 +5082,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -5073,7 +5090,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -5081,7 +5098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -5089,12 +5106,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5102,7 +5119,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -5110,7 +5127,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -5118,7 +5135,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -5126,7 +5143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -5134,7 +5151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5142,7 +5159,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5150,7 +5167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5158,137 +5175,137 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -5296,12 +5313,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -5309,42 +5326,42 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -5352,22 +5369,22 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>93</v>
       </c>
@@ -5378,7 +5395,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
@@ -5389,7 +5406,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5400,7 +5417,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>96</v>
       </c>
@@ -5411,7 +5428,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>97</v>
       </c>
@@ -5422,7 +5439,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>98</v>
       </c>
@@ -5433,7 +5450,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>99</v>
       </c>
@@ -5444,7 +5461,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>100</v>
       </c>
@@ -5455,7 +5472,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>101</v>
       </c>
@@ -5466,7 +5483,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>102</v>
       </c>
@@ -5477,7 +5494,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>103</v>
       </c>
@@ -5488,7 +5505,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>104</v>
       </c>
@@ -5499,7 +5516,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>105</v>
       </c>
@@ -5510,7 +5527,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>106</v>
       </c>
@@ -5521,7 +5538,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>107</v>
       </c>
@@ -5532,7 +5549,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>108</v>
       </c>
@@ -5543,7 +5560,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>109</v>
       </c>
@@ -5554,7 +5571,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>110</v>
       </c>
@@ -5565,7 +5582,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>111</v>
       </c>
@@ -5576,7 +5593,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>112</v>
       </c>
@@ -5587,7 +5604,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>113</v>
       </c>
@@ -5598,7 +5615,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>114</v>
       </c>
@@ -5609,7 +5626,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>115</v>
       </c>
@@ -5620,7 +5637,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>116</v>
       </c>
@@ -5631,7 +5648,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>117</v>
       </c>
@@ -5642,7 +5659,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>118</v>
       </c>
@@ -5653,7 +5670,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>119</v>
       </c>
@@ -5664,7 +5681,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>120</v>
       </c>
@@ -5675,7 +5692,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>121</v>
       </c>
@@ -5686,7 +5703,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>122</v>
       </c>
@@ -5697,7 +5714,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>123</v>
       </c>
@@ -5708,7 +5725,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>124</v>
       </c>
@@ -5719,7 +5736,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>125</v>
       </c>
@@ -5730,7 +5747,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>126</v>
       </c>
@@ -5741,7 +5758,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>127</v>
       </c>
@@ -5752,7 +5769,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>128</v>
       </c>
@@ -5763,7 +5780,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>129</v>
       </c>
@@ -5774,7 +5791,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>130</v>
       </c>
@@ -5785,7 +5802,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>131</v>
       </c>
@@ -5796,7 +5813,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
         <v>132</v>
       </c>
@@ -5807,7 +5824,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
         <v>133</v>
       </c>
@@ -5818,7 +5835,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
         <v>134</v>
       </c>
@@ -5829,7 +5846,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>135</v>
       </c>
@@ -5840,7 +5857,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
         <v>136</v>
       </c>
@@ -5851,7 +5868,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
         <v>137</v>
       </c>
@@ -5862,7 +5879,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
         <v>138</v>
       </c>
@@ -5873,7 +5890,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
         <v>139</v>
       </c>
@@ -5884,7 +5901,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
@@ -5895,7 +5912,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
         <v>140</v>
       </c>
@@ -5906,7 +5923,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
         <v>141</v>
       </c>
@@ -5917,7 +5934,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>142</v>
       </c>
@@ -5928,7 +5945,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
         <v>143</v>
       </c>
@@ -5939,7 +5956,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
         <v>144</v>
       </c>
@@ -5950,7 +5967,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>145</v>
       </c>
@@ -5961,7 +5978,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
         <v>146</v>
       </c>
@@ -5972,7 +5989,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
         <v>113</v>
       </c>
@@ -5983,7 +6000,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
         <v>147</v>
       </c>
@@ -5994,7 +6011,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -6005,7 +6022,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
         <v>149</v>
       </c>
@@ -6016,7 +6033,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
         <v>150</v>
       </c>
@@ -6027,7 +6044,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
         <v>151</v>
       </c>
@@ -6038,7 +6055,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
         <v>152</v>
       </c>
@@ -6049,7 +6066,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
         <v>153</v>
       </c>
@@ -6060,7 +6077,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
         <v>154</v>
       </c>
@@ -6071,7 +6088,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
         <v>155</v>
       </c>
@@ -6082,7 +6099,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
         <v>107</v>
       </c>
@@ -6093,7 +6110,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
         <v>156</v>
       </c>
@@ -6104,7 +6121,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
         <v>157</v>
       </c>
@@ -6115,7 +6132,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
         <v>116</v>
       </c>
@@ -6126,7 +6143,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
         <v>158</v>
       </c>
@@ -6137,7 +6154,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
         <v>159</v>
       </c>
@@ -6148,7 +6165,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
         <v>160</v>
       </c>
@@ -6159,7 +6176,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
         <v>161</v>
       </c>
@@ -6170,7 +6187,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>162</v>
       </c>
@@ -6181,7 +6198,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
         <v>163</v>
       </c>
@@ -6192,7 +6209,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
         <v>164</v>
       </c>
@@ -6203,7 +6220,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
         <v>165</v>
       </c>
@@ -6214,7 +6231,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
         <v>166</v>
       </c>
@@ -6225,7 +6242,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
         <v>154</v>
       </c>
@@ -6236,7 +6253,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
         <v>167</v>
       </c>
@@ -6247,7 +6264,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
         <v>168</v>
       </c>
@@ -6258,7 +6275,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
         <v>169</v>
       </c>
@@ -6269,7 +6286,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
         <v>170</v>
       </c>
@@ -6280,7 +6297,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
         <v>171</v>
       </c>
@@ -6291,7 +6308,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
         <v>172</v>
       </c>
@@ -6302,7 +6319,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
         <v>173</v>
       </c>

--- a/faq.xlsx
+++ b/faq.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_uemura\Desktop\faq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6E4A60-0F19-4B66-AC3D-DA48E98BC7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF65A04-D480-4CD8-A2EA-FD0F83FE931D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="19560" windowWidth="9765" windowHeight="11160" xr2:uid="{D90987E8-E70A-4CC6-9903-E6944D1A42F6}"/>
+    <workbookView xWindow="22920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D90987E8-E70A-4CC6-9903-E6944D1A42F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="474">
   <si>
     <t>質問</t>
     <rPh sb="0" eb="2">
@@ -104,29 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>押込通風機（押込ファン）</t>
-    <rPh sb="0" eb="2">
-      <t>オシコ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ツウフウキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>オシコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上流（下流）</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウリュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カリュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ガス側</t>
     <rPh sb="2" eb="3">
       <t>ガワ</t>
@@ -240,16 +217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>蒸気式空気予熱器(スチームエアヒーター)</t>
-    <rPh sb="0" eb="3">
-      <t>ジョウキシキ</t>
-    </rPh>
-    <rPh sb="3" eb="8">
-      <t>クウキヨネツキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>蒸気タービン</t>
     <rPh sb="0" eb="2">
       <t>ジョウキ</t>
@@ -288,13 +255,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>節炭器(エコノマイザ)</t>
-    <rPh sb="0" eb="3">
-      <t>セッタンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>脱気器</t>
     <rPh sb="0" eb="3">
       <t>ダッキキ</t>
@@ -678,31 +638,6 @@
     </rPh>
     <rPh sb="43" eb="44">
       <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>燃焼室を上流側と言い、煙突を下流側という。</t>
-    <rPh sb="0" eb="3">
-      <t>ネンショウシツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウリュウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>エントツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カリュウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ガワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1352,23 +1287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>きすいどう,どらむ,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あんぜんべん,弁,バルブ,ばるぶ,安全装置,あんぜん,安全</t>
-    <rPh sb="7" eb="8">
-      <t>ベン</t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t>アンゼンソウチ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>アンゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>関連ワード</t>
     <rPh sb="0" eb="2">
       <t>カンレン</t>
@@ -2029,10 +1947,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>じくぶれす（えんちょくぶれす）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>きそこん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2057,10 +1971,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>きゃんち（はりだし）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>けんでん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2081,10 +1991,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>てぃーしーぼると（とるしあぼると、しゃーぼると）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>じしゅすいあつ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2093,10 +1999,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>じゅうりょうひょう（びーきゅうりすと）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>じゅでん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2121,10 +2023,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>すいちゅうぽんぷ（すいぽん）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>すいへいぶれす</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2149,10 +2047,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>すぷらいすぷれーと（SPL)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>すらいどぷれーと</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2189,10 +2083,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>でぃーあーる（でざいんれびゅー）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>でんけい</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2229,10 +2119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ねつそうち（ねつそう）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>のうにゅうひんず</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2242,10 +2128,6 @@
   </si>
   <si>
     <t>はっそうあんないしょ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぱっとうち（まんじゅう）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3663,40 +3545,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鉄骨接合部に使用するボルト。シャーレンチという特殊工具で締め付けを行う。M表記だがナットのサイズが従来のミリネジ規格(M）と違う。</t>
-    <rPh sb="0" eb="5">
-      <t>テッコツセツゴウブ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>トクシュコウグ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウキ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ジュウライ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>墨出しを行う上で、メインとなる墨(ボイラー芯墨)が今後機器が増える等で延長できなくなることが予想される場合、決めた値分ずらした位置に線を引くこと。決めた値は任意で良い。</t>
     <rPh sb="0" eb="1">
       <t>スミ</t>
@@ -3932,10 +3780,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鉄骨柱や機械の据え付けを安定化させるため、それらを据え付ける基礎を平面にしておく必要があります。そのため、モルタルなどを基礎の上に打設し、接触面をならす（水平で滑らかな平面にする）こと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パット打ちの際、頂部の機器接触面に設置するライナー</t>
     <rPh sb="3" eb="4">
       <t>ウ</t>
@@ -4498,6 +4342,1499 @@
   </si>
   <si>
     <t>image/anzenben.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>撹拌</t>
+    <rPh sb="0" eb="2">
+      <t>カクハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インバーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引張応力</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッパリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧縮応力</t>
+    <rPh sb="0" eb="4">
+      <t>アッシュクオウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウエス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろ布</t>
+    <rPh sb="1" eb="2">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプレーノズル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガスケット（パッキン）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二重ダンパ</t>
+    <rPh sb="0" eb="2">
+      <t>ニジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械式煤吹装置(MSB)</t>
+    <rPh sb="0" eb="7">
+      <t>キカイシキススフキソウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エキスパンダ(CB,BK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボアマチック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グルービング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じょうはつかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おしこみつうふうき　ふぁん　おしこみ　FDF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押込通風機（押込ファン、FDF）</t>
+    <rPh sb="0" eb="2">
+      <t>オシコ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ツウフウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オシコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上流</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下流</t>
+    <rPh sb="0" eb="2">
+      <t>カリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じょうりゅう　一次　いちじ</t>
+    <rPh sb="7" eb="9">
+      <t>イチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かりゅう　二次　にじ</t>
+    <rPh sb="5" eb="7">
+      <t>ニジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がすがわ　がす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かいだんろ　すとーか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すーぱー　かねつかん　かねつ　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すーぱー　かねつき　かねつ　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねんしょうしつ　かろ　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんすいじゅんかんはいかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんすいじゅんかんぽんぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんよせ　へっだー　くだよせ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんつき　べん　かんつきだいいちべん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちっぷふぃーだ　きょうきゅうふぃーだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゅうすい　べん　きゅうすいとめべん　きゅうすいべん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>げんすいぽんぷ　げんすい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうすいかん　こうすい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すいどう　したどらむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蒸気式空気予熱器(スチームエアヒーター、SAH)</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウキシキ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>クウキヨネツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じょうきしきくうきよねつき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じょうきたーびん　じょうき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅーと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅじょうきとめべん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すいれいへき　すいかんぱねる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すらぐかん　すらぐすくりーん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だっきき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だっきききゅうすいぽんぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たんく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だくと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ていりょうふぃーだ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でんきしゅうじんき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とらべりんぐすとーか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どれん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ないぶそうち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねんりょうこんべや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はいこんべや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぱす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ばぐふぃるた　しゅうじんき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふくすいき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほっぱ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼいらーきゅうすいぽんぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほんたいすいかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼいらーとっぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まるちさいくろん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みずがわ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆういんつうふうき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りゅうどうつうふうき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りゅうどうそう　りゅうどうしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れいきゃくとう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れいきゃくすいぽんぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>れんらくかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すいかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふらっしゅたんく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かくはん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いんばーたー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あっしゅくおうりょく　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひっぱりおうりょく　引っ張り　引張り</t>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>パ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒッパ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うえす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ろふ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がすけっと　ぱっきん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すぷれーのずる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にじゅうだんぱ　だんぱ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きかいしきすすふきそうち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えきすぱんだ　拡管　かっかん　かくかん　まんどれる</t>
+    <rPh sb="7" eb="8">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼあまちっく　計測工具　けいそくこうぐ　測定工具　そくていこうぐ</t>
+    <rPh sb="7" eb="11">
+      <t>ケイソクコウグ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ソクテイコウグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐるーびんぐ　缶穴　かんあな</t>
+    <rPh sb="7" eb="9">
+      <t>カンアナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あんぜんべん　バルブ　ばるぶ　安全装置</t>
+    <rPh sb="15" eb="19">
+      <t>アンゼンソウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きすいどう　どらむ　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぱっとうち　まんじゅう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゅうりょうひょう　びーきゅうりすと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きゃんち　はりだし　張出</t>
+    <rPh sb="10" eb="12">
+      <t>ハリダシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じくぶれす　えんちょくぶれす　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てぃーしーぼると　とるしあぼると　しゃーぼると</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すいちゅうぽんぷ　すいぽん　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すぷらいすぷれーと　SPL　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でぃーあーる　でざいんれびゅー　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねつそうち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通ガス</t>
+    <rPh sb="0" eb="1">
+      <t>ツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合マーク</t>
+    <rPh sb="0" eb="1">
+      <t>アイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打検</t>
+    <rPh sb="0" eb="2">
+      <t>ダケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イモネジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テークアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッド側</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テール側</t>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃料</t>
+    <rPh sb="0" eb="2">
+      <t>ネンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ばいぱす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つうがす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あいまーく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぴーてぃーけんさ　しんとうたんしょうけんさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UT検査(超音波探傷試験)</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="5" eb="12">
+      <t>チョウオンパタンショウシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PT検査（浸透探傷試験）</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゆーてぃーけんさ　ちょうおんぱたんしょうしけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MT検査(磁粉探傷試験)</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジフン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>タンショウシケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えむてぃーけんさ　じふんたんしょうしけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT検査（放射線透過試験）</t>
+    <rPh sb="2" eb="4">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ホウシャセン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あーるてぃーけんさ　ほうしゃせんとうかしけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だけん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いもねじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちぇーん　こんべや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てーくあっぷ　こんべや　テイクアップ　てーくいあっぷ　ていくあっぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へっどがわ　こんべや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てーるがわ　こんべや</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねんりょう　木質チップ　もくしつちっぷ　RPF　あーるぴーえふ　PKS　ぴーけーえす</t>
+    <rPh sb="6" eb="8">
+      <t>モクシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼室を上流側と言い、煙突を下流側という。　一次＝上流、二次＝下流</t>
+    <rPh sb="0" eb="3">
+      <t>ネンショウシツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウリュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>エントツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カリュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウリュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>圧力容器(缶）から配管を挟んで一発目の弁。</t>
+    <rPh sb="0" eb="4">
+      <t>アツリョクヨウキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハサ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>イッパツメ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ベン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上から下に落ちる灰などを搬送するダクトみたいなやつ。</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボイラー設備の水側の出口にある弁。水が蒸発した蒸気が通る。過熱器がある場合は過熱器の出口にある。</t>
+    <rPh sb="4" eb="6">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デグチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ベン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウハツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カネツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カネツ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼室などの壁を水管にすることによって熱交換率の上昇＋高温でも耐えられるようにしている。大体ボイラー出口以降には無い。</t>
+    <rPh sb="0" eb="3">
+      <t>ネンショウシツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>スイカン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ネツコウカンリツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウオン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>デグチイコウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼室から水管群(SH)にガスが流れる道中にある。燃焼室後壁水管の一部。</t>
+    <rPh sb="0" eb="3">
+      <t>ネンショウシツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>スイカングン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウチュウ</t>
+    </rPh>
+    <rPh sb="25" eb="32">
+      <t>ネンショウシツコウヘキスイカン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イチブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これからボイラーに給水するで！って水の中の酸素を取り除く設備。蒸気を噴霧することによって溶存酸素をとりのぞく。基本的にボイラー設備エリアのちょっと高いところにある。</t>
+    <rPh sb="9" eb="11">
+      <t>キュウスイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンソ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>フンム</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>ヨウゾンサンソ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱気器に水を送るポンプ。大体ボイラー給水タンクと脱気器の間にある。</t>
+    <rPh sb="0" eb="3">
+      <t>ダッキキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キュウスイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ダッキキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ものを貯めておくところ。タクマのプラントでは中身は水とか薬品が多め。</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヤクヒン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガスや空気が通る筒。大体保温板金がついていればガスが通ってて、ついてなければ空気が通ってる。ただし、あっためた空気が通るときは板金ついているので注意。</t>
+    <rPh sb="3" eb="5">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ホオンバンキン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バンキン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受入供給設備の最初についている。燃料を投入するためのクレーンがあるプラントでは上の方に設置されているが、クレーンがないプラントは１F にある。</t>
+    <rPh sb="0" eb="6">
+      <t>ウケイレキョウキュウセツビ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ネンリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウニュウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電気の力で排ガス中の灰を集める機械。ざっくりケーシング、放電極、集塵板、碍子で構成されている。</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>デンキョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウジン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガイシ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼装置の一つ。キャタピラ上に燃料を乗せて燃やす。キャタピラは動いているので勝手に灰出しコンベヤに落ちる。</t>
+    <rPh sb="0" eb="4">
+      <t>ネンショウソウチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ネンリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ハイダ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「〇〇ドレン弁」とかよく聞く名前。ざっくりいうと水抜き弁のこと。</t>
+    <rPh sb="6" eb="7">
+      <t>ベン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ミズヌ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ベン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汽水胴内に取付ける部品。蒸気と水を分離させるために設置される。</t>
+    <rPh sb="0" eb="4">
+      <t>キスイドウナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トリツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブンリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼室で発生した燃え殻や排ガス中の灰を所定の場所まで運搬する機械。</t>
+    <rPh sb="0" eb="3">
+      <t>ネンショウシツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ウンパン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼室で燃やすための燃料を燃焼室まで運搬する機械。</t>
+    <rPh sb="0" eb="3">
+      <t>ネンショウシツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ネンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ネンショウシツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ウンパン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃焼ガスの通り道のこと。1パス、2パス、、、という表現をする。曲がるたびに数字が増える。現場によってはガス流れ上流からマンホールごとに〇パスと表現したりする。厳密な定義は不要で、関係者との認識共有のために理解する程度で良い。</t>
+    <rPh sb="0" eb="2">
+      <t>ネンショウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジョウリュウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ゲンミツ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>カンケイシャ</t>
+    </rPh>
+    <rPh sb="94" eb="98">
+      <t>ニンシキキョウユウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目の細かい布で排ガス中の灰を集める機械。ざっくりケーシング、ろ布、逆洗装置で構成されている。</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヌノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ギャクセンソウチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タービンを通った蒸気を捨てるともったいないので、水に戻してボイラーでもう一度使うための機械。タービンの仕組み等諸々の事情で「基本的に負圧」</t>
+    <rPh sb="5" eb="6">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="55" eb="60">
+      <t>モロモロノジジョウ</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>フアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆三角錐のケーシング。シュートとか二重ダンパに繋がっている。</t>
+    <rPh sb="0" eb="1">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>サンカクスイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニジュウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャビテーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱気器からボイラー(節炭器やドラム)に水を送るポンプ。出口圧力がボイラーより低いとボイラーに水を押し込めないので出口圧力はボイラーより高い。入口圧力(脱気器圧力）の低下等が原因でキャビテーションを起こしやすい。</t>
+    <rPh sb="0" eb="3">
+      <t>ダッキキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セッタンキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>デグチアツリョク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="56" eb="60">
+      <t>デグチアツリョク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="70" eb="74">
+      <t>イリグチアツリョク</t>
+    </rPh>
+    <rPh sb="75" eb="80">
+      <t>ダッキキアツリョク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボイラーという熱交換装置の部品。</t>
+    <rPh sb="7" eb="12">
+      <t>ネツコウカンソウチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイソンの掃除機と同じ原理で灰を集める機械。ざっくりケーシング、インナーコーン、アウターコーン、旋回翼で構成されている。マルチへの排ガス進入方向によっては風箱がついている。</t>
+    <rPh sb="5" eb="8">
+      <t>ソウジキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンリ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>センカイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツバサ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>シンニュウホウコウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カザバコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグフィルタと煙突(排気筒）の間についているファン。燃焼ガスを吸引して煙突から吐き出す。炉内を負圧に保つ効果あり。ガスを引っ張って熱交換装置を通過させる役割もある。</t>
+    <rPh sb="7" eb="9">
+      <t>エントツ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ハイキトウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ネンショウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キュウイン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>エントツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ロナイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>フアツ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>パ</t>
+    </rPh>
+    <rPh sb="65" eb="70">
+      <t>ネツコウカンソウチ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流動層ボイラについているファン。燃焼設備の流動層用の空気を送る。多分N-900以下にはない。(押込み通風機のスペックで流動空気を賄えるため)</t>
+    <rPh sb="0" eb="3">
+      <t>リュウドウソウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ネンショウセツビ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>リュウドウソウヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タブン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>オシコ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>ツウフウキ</t>
+    </rPh>
+    <rPh sb="59" eb="63">
+      <t>リュウドウクウキ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>マカナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4545,7 +5882,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4601,13 +5938,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4621,6 +5967,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4937,19 +6289,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A56739-67EF-4B00-8960-00ED76911343}">
-  <dimension ref="A1:D152"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="189.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="189.25" customWidth="1"/>
+    <col min="3" max="3" width="83.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4957,1377 +6311,1761 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>407</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>448</v>
+      </c>
+      <c r="C19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>356</v>
+      </c>
+      <c r="B25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="C26" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="B27" t="s">
+        <v>449</v>
+      </c>
+      <c r="C27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="B28" t="s">
+        <v>450</v>
+      </c>
+      <c r="C28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
+        <v>451</v>
+      </c>
+      <c r="C29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C30" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>453</v>
+      </c>
+      <c r="C31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>454</v>
+      </c>
+      <c r="C32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>455</v>
+      </c>
+      <c r="C33" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>456</v>
+      </c>
+      <c r="C34" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>457</v>
+      </c>
+      <c r="C35" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>458</v>
+      </c>
+      <c r="C36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>459</v>
+      </c>
+      <c r="C37" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>460</v>
+      </c>
+      <c r="C38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>461</v>
+      </c>
+      <c r="C39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>463</v>
+      </c>
+      <c r="C40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>462</v>
+      </c>
+      <c r="C41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>464</v>
+      </c>
+      <c r="C42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>465</v>
+      </c>
+      <c r="C43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>466</v>
+      </c>
+      <c r="C44" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>467</v>
+      </c>
+      <c r="C45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>469</v>
+      </c>
+      <c r="C46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>470</v>
+      </c>
+      <c r="C47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>471</v>
+      </c>
+      <c r="C49" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>472</v>
+      </c>
+      <c r="C51" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>473</v>
+      </c>
+      <c r="C52" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+      <c r="C61" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B69" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="C77" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="C78" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="C79" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="C80" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="C81" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="C82" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B115" s="4" t="s">
+      <c r="C123" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B116" s="4" t="s">
+      <c r="C124" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B117" s="4" t="s">
+      <c r="C126" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B118" s="4" t="s">
+      <c r="C127" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B119" s="4" t="s">
+      <c r="C128" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B120" s="4" t="s">
+      <c r="C129" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B121" s="4" t="s">
+      <c r="C130" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B122" s="4" t="s">
+      <c r="C131" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B125" s="4" t="s">
+      <c r="B135" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B126" s="4" t="s">
+      <c r="C135" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B127" s="4" t="s">
+      <c r="C136" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B128" s="4" t="s">
+      <c r="C137" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B129" s="4" t="s">
+      <c r="C138" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B130" s="4" t="s">
+      <c r="C139" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A131" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B131" s="4" t="s">
+      <c r="C140" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A132" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A133" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B133" s="4" t="s">
+      <c r="C141" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A134" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C134" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A135" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A136" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A137" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B137" s="4" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A138" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="C143" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A139" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B139" s="4" t="s">
+      <c r="C144" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A140" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B140" s="4" t="s">
+      <c r="C145" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A141" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B141" s="4" t="s">
+      <c r="C146" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A142" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B142" s="4" t="s">
+      <c r="C147" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A143" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B143" s="4" t="s">
+      <c r="C148" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A144" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A145" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B145" s="4" t="s">
+      <c r="C150" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A146" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B146" s="4" t="s">
+      <c r="C151" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A147" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B147" s="4" t="s">
+      <c r="C152" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A148" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B148" s="4" t="s">
+      <c r="C153" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A149" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B149" s="4" t="s">
+      <c r="C154" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A150" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A151" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A152" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>254</v>
+      <c r="C155" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" s="5" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/faq.xlsx
+++ b/faq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_uemura\Desktop\faq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF65A04-D480-4CD8-A2EA-FD0F83FE931D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B944945-1417-47A6-BC3C-5FBF4A88F39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D90987E8-E70A-4CC6-9903-E6944D1A42F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{D90987E8-E70A-4CC6-9903-E6944D1A42F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,49 +436,6 @@
   </si>
   <si>
     <t>サイロ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水を熱してできた蒸気が集まる場所。水と蒸気が明確に混在している。大体ボイラー設備の一番上にある丸いやつ。</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ネッ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>メイカク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コンザイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ダイタイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セツビ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>イチバンウエ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>マル</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5834,6 +5791,49 @@
     </rPh>
     <rPh sb="64" eb="65">
       <t>マカナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水を熱してできた蒸気が集まる場所。水と蒸気が混在している。大体ボイラー設備の一番上にある丸くて長いやつ。</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネッ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コンザイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セツビ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>イチバンウエ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ナガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5953,7 +5953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5969,10 +5969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6292,8 +6289,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6311,10 +6308,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -6322,13 +6319,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -6336,10 +6333,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -6347,10 +6344,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>473</v>
       </c>
       <c r="C4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -6358,10 +6355,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -6369,10 +6366,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -6380,43 +6377,43 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -6424,10 +6421,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -6435,10 +6432,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -6446,10 +6443,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -6457,10 +6454,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -6468,10 +6465,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -6479,10 +6476,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -6490,10 +6487,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -6501,10 +6498,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -6512,10 +6509,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -6523,10 +6520,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -6534,10 +6531,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -6545,10 +6542,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -6556,10 +6553,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -6567,21 +6564,21 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>355</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
         <v>356</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -6589,10 +6586,10 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -6600,10 +6597,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -6611,10 +6608,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -6622,10 +6619,10 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -6633,10 +6630,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -6644,10 +6641,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -6655,10 +6652,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -6666,10 +6663,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -6677,10 +6674,10 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
@@ -6688,10 +6685,10 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C35" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -6699,10 +6696,10 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -6710,10 +6707,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -6721,10 +6718,10 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
@@ -6732,10 +6729,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
@@ -6743,10 +6740,10 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
@@ -6754,10 +6751,10 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C41" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -6765,10 +6762,10 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -6776,10 +6773,10 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
@@ -6787,10 +6784,10 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -6798,10 +6795,10 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -6809,10 +6806,10 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
@@ -6820,10 +6817,10 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -6831,10 +6828,10 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -6842,10 +6839,10 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C49" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -6853,10 +6850,10 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
@@ -6864,10 +6861,10 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -6875,10 +6872,10 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
@@ -6886,7 +6883,7 @@
         <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -6894,7 +6891,7 @@
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
@@ -6902,7 +6899,7 @@
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -6910,7 +6907,7 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
@@ -6918,7 +6915,7 @@
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -6926,10 +6923,10 @@
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
@@ -6937,7 +6934,7 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
@@ -6945,7 +6942,7 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
@@ -6953,1119 +6950,1119 @@
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>395</v>
+        <v>322</v>
+      </c>
+      <c r="C144" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>397</v>
+        <v>323</v>
+      </c>
+      <c r="C145" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>396</v>
+        <v>324</v>
+      </c>
+      <c r="C146" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>398</v>
+        <v>325</v>
+      </c>
+      <c r="C147" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>399</v>
+        <v>326</v>
+      </c>
+      <c r="C148" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>400</v>
+        <v>328</v>
+      </c>
+      <c r="C149" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>401</v>
+        <v>327</v>
+      </c>
+      <c r="C150" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>402</v>
+        <v>329</v>
+      </c>
+      <c r="C151" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>403</v>
+        <v>330</v>
+      </c>
+      <c r="C152" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>404</v>
+        <v>331</v>
+      </c>
+      <c r="C153" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>405</v>
+        <v>332</v>
+      </c>
+      <c r="C154" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>406</v>
+        <v>333</v>
+      </c>
+      <c r="C155" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>429</v>
+        <v>418</v>
+      </c>
+      <c r="C156" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>430</v>
+        <v>419</v>
+      </c>
+      <c r="C157" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>431</v>
+        <v>420</v>
+      </c>
+      <c r="C158" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="C159" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
+      </c>
+      <c r="C160" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C161" t="s">
         <v>436</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C162" t="s">
         <v>438</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>440</v>
+        <v>421</v>
+      </c>
+      <c r="C163" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>441</v>
+        <v>422</v>
+      </c>
+      <c r="C164" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>442</v>
+        <v>423</v>
+      </c>
+      <c r="C165" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>443</v>
+        <v>424</v>
+      </c>
+      <c r="C166" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>444</v>
+        <v>425</v>
+      </c>
+      <c r="C167" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>445</v>
+        <v>426</v>
+      </c>
+      <c r="C168" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>446</v>
+        <v>427</v>
+      </c>
+      <c r="C169" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
